--- a/data/gain_photodetector.xlsx
+++ b/data/gain_photodetector.xlsx
@@ -8,24 +8,57 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DB5119-F375-4455-B4D5-6DF8084AFD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4DAC4-4C9A-43B5-A20C-48796FBA012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -37,6 +70,12 @@
   </si>
   <si>
     <t>filter3</t>
+  </si>
+  <si>
+    <t>f4</t>
+  </si>
+  <si>
+    <t>f5</t>
   </si>
 </sst>
 </file>
@@ -445,7 +484,759 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$8:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$8:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>10.763</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.085000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.66</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.97</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46.773000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>81.819999999999993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>136.66900000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219.91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>338.63</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00E+00">
+                  <c:v>500.9</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1166-4C99-AE11-2DE745C97957}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="307093760"/>
+        <c:axId val="307094240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="307093760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307094240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="307094240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="307093760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$8:$G$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>-1.0319333402756055</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0447356974505071</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0972573096934199</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.2216749970707688</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.4308809464528911</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.6699952262621844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.9128594751623549</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.1356700167206144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-2.3422449785471198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-2.5297254306108168</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.6997510316895141</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.8549130223078554</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A37A-4F87-A3C7-45D0077CA1CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="731956816"/>
+        <c:axId val="731957776"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="731956816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731957776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="731957776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="731956816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1001,20 +1792,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>292892</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>150018</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450055</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>330992</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>535780</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1034,6 +2857,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364331</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>402431</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>26193</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E26CB6-794D-BA12-D39B-4BC7A250F3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640556</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>154780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30956</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>2380</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE4937-EAD2-6F13-21A8-EF935CF3B319}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1305,10 +3200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1318,7 +3213,7 @@
     <col min="3" max="3" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1331,49 +3226,62 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="C2">
         <v>10.743</v>
       </c>
+      <c r="E2">
+        <v>10.6</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.3</v>
       </c>
       <c r="B8">
         <v>10.763</v>
       </c>
+      <c r="G8" cm="1">
+        <f t="array" ref="G8:G19">-LOG(B8:B19)</f>
+        <v>-1.0319333402756055</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.35</v>
       </c>
@@ -1383,11 +3291,11 @@
       <c r="C9">
         <v>10.891999999999999</v>
       </c>
-      <c r="D9">
-        <v>10.85</v>
+      <c r="G9">
+        <v>-1.0447356974505071</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -1398,10 +3306,13 @@
         <v>11.53</v>
       </c>
       <c r="D10">
-        <v>11.55</v>
+        <v>10.85</v>
+      </c>
+      <c r="G10">
+        <v>-1.0972573096934199</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.45</v>
       </c>
@@ -1412,10 +3323,13 @@
         <v>13.8</v>
       </c>
       <c r="D11">
-        <v>13.8</v>
+        <v>11.55</v>
+      </c>
+      <c r="G11">
+        <v>-1.2216749970707688</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -1426,10 +3340,13 @@
         <v>19.48</v>
       </c>
       <c r="D12">
-        <v>19.600000000000001</v>
+        <v>13.8</v>
+      </c>
+      <c r="G12">
+        <v>-1.4308809464528911</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.55000000000000004</v>
       </c>
@@ -1440,10 +3357,16 @@
         <v>31.43</v>
       </c>
       <c r="D13">
-        <v>31.8</v>
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>10.9</v>
+      </c>
+      <c r="G13">
+        <v>-1.6699952262621844</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.6</v>
       </c>
@@ -1454,10 +3377,16 @@
         <v>53.960999999999999</v>
       </c>
       <c r="D14">
-        <v>54.8</v>
+        <v>31.8</v>
+      </c>
+      <c r="E14">
+        <v>11.3</v>
+      </c>
+      <c r="G14">
+        <v>-1.9128594751623549</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.65</v>
       </c>
@@ -1468,10 +3397,16 @@
         <v>92.653999999999996</v>
       </c>
       <c r="D15">
-        <v>94.1</v>
+        <v>54.8</v>
+      </c>
+      <c r="E15">
+        <v>12.2</v>
+      </c>
+      <c r="G15">
+        <v>-2.1356700167206144</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.7</v>
       </c>
@@ -1481,8 +3416,17 @@
       <c r="C16">
         <v>153.66999999999999</v>
       </c>
+      <c r="D16">
+        <v>94.1</v>
+      </c>
+      <c r="E16">
+        <v>13.6</v>
+      </c>
+      <c r="G16">
+        <v>-2.3422449785471198</v>
+      </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -1492,8 +3436,17 @@
       <c r="C17">
         <v>243.2</v>
       </c>
+      <c r="D17">
+        <v>136.69999999999999</v>
+      </c>
+      <c r="E17">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G17">
+        <v>-2.5297254306108168</v>
+      </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -1503,8 +3456,17 @@
       <c r="C18">
         <v>370.93</v>
       </c>
+      <c r="D18">
+        <v>215.3</v>
+      </c>
+      <c r="E18">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="G18">
+        <v>-2.6997510316895141</v>
+      </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -1513,6 +3475,15 @@
       </c>
       <c r="C19">
         <v>547.70000000000005</v>
+      </c>
+      <c r="D19">
+        <v>324.8</v>
+      </c>
+      <c r="E19">
+        <v>25.5</v>
+      </c>
+      <c r="G19">
+        <v>-2.8549130223078554</v>
       </c>
     </row>
   </sheetData>

--- a/data/gain_photodetector.xlsx
+++ b/data/gain_photodetector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2E4DAC4-4C9A-43B5-A20C-48796FBA012E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4896E06-B852-4C4A-A5EE-CA0902462DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,30 +35,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -76,6 +54,9 @@
   </si>
   <si>
     <t>f5</t>
+  </si>
+  <si>
+    <t>f6(empty)</t>
   </si>
 </sst>
 </file>
@@ -843,319 +824,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$8:$G$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>-1.0319333402756055</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.0447356974505071</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.0972573096934199</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.2216749970707688</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.4308809464528911</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.6699952262621844</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.9128594751623549</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.1356700167206144</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-2.3422449785471198</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-2.5297254306108168</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-2.6997510316895141</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.8549130223078554</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A37A-4F87-A3C7-45D0077CA1CC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="731956816"/>
-        <c:axId val="731957776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="731956816"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="731957776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="731957776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="731956816"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1236,46 +904,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1793,522 +1421,6 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2893,42 +2005,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>640556</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>154780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>30956</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>2380</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07CE4937-EAD2-6F13-21A8-EF935CF3B319}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3203,7 +2279,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3232,6 +2308,9 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2">
@@ -3240,8 +2319,17 @@
       <c r="C2">
         <v>10.743</v>
       </c>
+      <c r="D2">
+        <v>10.6</v>
+      </c>
       <c r="E2">
         <v>10.6</v>
+      </c>
+      <c r="F2">
+        <v>10.57</v>
+      </c>
+      <c r="G2">
+        <v>10.55</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.45">
@@ -3263,11 +2351,17 @@
       <c r="A6">
         <v>0.2</v>
       </c>
+      <c r="G6">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.25</v>
       </c>
+      <c r="G7">
+        <v>30.1</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8">
@@ -3276,9 +2370,8 @@
       <c r="B8">
         <v>10.763</v>
       </c>
-      <c r="G8" cm="1">
-        <f t="array" ref="G8:G19">-LOG(B8:B19)</f>
-        <v>-1.0319333402756055</v>
+      <c r="G8">
+        <v>268.3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
@@ -3292,7 +2385,7 @@
         <v>10.891999999999999</v>
       </c>
       <c r="G9">
-        <v>-1.0447356974505071</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
@@ -3309,7 +2402,7 @@
         <v>10.85</v>
       </c>
       <c r="G10">
-        <v>-1.0972573096934199</v>
+        <v>3764</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
@@ -3326,7 +2419,7 @@
         <v>11.55</v>
       </c>
       <c r="G11">
-        <v>-1.2216749970707688</v>
+        <v>8480</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
@@ -3343,7 +2436,7 @@
         <v>13.8</v>
       </c>
       <c r="G12">
-        <v>-1.4308809464528911</v>
+        <v>10792</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
@@ -3362,8 +2455,11 @@
       <c r="E13">
         <v>10.9</v>
       </c>
+      <c r="F13">
+        <v>10.7</v>
+      </c>
       <c r="G13">
-        <v>-1.6699952262621844</v>
+        <v>10794</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
@@ -3382,8 +2478,11 @@
       <c r="E14">
         <v>11.3</v>
       </c>
+      <c r="F14">
+        <v>10.9</v>
+      </c>
       <c r="G14">
-        <v>-1.9128594751623549</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.45">
@@ -3402,8 +2501,11 @@
       <c r="E15">
         <v>12.2</v>
       </c>
+      <c r="F15">
+        <v>11.4</v>
+      </c>
       <c r="G15">
-        <v>-2.1356700167206144</v>
+        <v>10795</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.45">
@@ -3422,11 +2524,11 @@
       <c r="E16">
         <v>13.6</v>
       </c>
-      <c r="G16">
-        <v>-2.3422449785471198</v>
+      <c r="F16">
+        <v>12.2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -3442,11 +2544,11 @@
       <c r="E17">
         <v>16.100000000000001</v>
       </c>
-      <c r="G17">
-        <v>-2.5297254306108168</v>
+      <c r="F17">
+        <v>13.8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -3462,11 +2564,11 @@
       <c r="E18">
         <v>19.899999999999999</v>
       </c>
-      <c r="G18">
-        <v>-2.6997510316895141</v>
+      <c r="F18">
+        <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -3482,8 +2584,8 @@
       <c r="E19">
         <v>25.5</v>
       </c>
-      <c r="G19">
-        <v>-2.8549130223078554</v>
+      <c r="F19">
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>

--- a/data/gain_photodetector.xlsx
+++ b/data/gain_photodetector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4896E06-B852-4C4A-A5EE-CA0902462DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034819A-3405-4F2C-B9E1-8117C29CD82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>f6(empty)</t>
+  </si>
+  <si>
+    <t>uncert (mV)</t>
   </si>
 </sst>
 </file>
@@ -231,7 +234,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$19</c:f>
+              <c:f>Sheet1!$D$9:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -587,7 +590,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$19</c:f>
+              <c:f>Sheet1!$C$8:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1946,7 +1949,7 @@
       <xdr:rowOff>11905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>535780</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>40480</xdr:rowOff>
@@ -1976,13 +1979,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>364331</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>402431</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>26193</xdr:rowOff>
@@ -2276,315 +2279,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="1" max="2" width="15.46484375" customWidth="1"/>
+    <col min="3" max="3" width="9.53125" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>0.34</v>
+      </c>
       <c r="C2">
+        <v>10.763</v>
+      </c>
+      <c r="D2">
         <v>10.743</v>
-      </c>
-      <c r="D2">
-        <v>10.6</v>
       </c>
       <c r="E2">
         <v>10.6</v>
       </c>
       <c r="F2">
+        <v>10.6</v>
+      </c>
+      <c r="G2">
         <v>10.57</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>10.55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>0.05</v>
       </c>
+      <c r="B3">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>0.1</v>
       </c>
+      <c r="B4">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>0.15</v>
       </c>
+      <c r="B5">
+        <v>0.34</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0.2</v>
       </c>
-      <c r="G6">
+      <c r="B6">
+        <v>0.34</v>
+      </c>
+      <c r="H6">
         <v>10.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0.25</v>
       </c>
-      <c r="G7">
+      <c r="B7">
+        <v>0.34</v>
+      </c>
+      <c r="H7">
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0.3</v>
       </c>
       <c r="B8">
+        <v>0.34</v>
+      </c>
+      <c r="C8">
         <v>10.763</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>268.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0.35</v>
       </c>
       <c r="B9">
+        <v>0.34</v>
+      </c>
+      <c r="C9">
         <v>11.085000000000001</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>10.891999999999999</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>1313</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0.4</v>
       </c>
       <c r="B10">
+        <v>0.34</v>
+      </c>
+      <c r="C10">
         <v>12.51</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>11.53</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10.85</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3764</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0.45</v>
       </c>
       <c r="B11">
+        <v>0.34</v>
+      </c>
+      <c r="C11">
         <v>16.66</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>13.8</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>11.55</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>8480</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0.5</v>
       </c>
       <c r="B12">
+        <v>0.34</v>
+      </c>
+      <c r="C12">
         <v>26.97</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>19.48</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>13.8</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>10792</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0.55000000000000004</v>
       </c>
       <c r="B13">
+        <v>0.34</v>
+      </c>
+      <c r="C13">
         <v>46.773000000000003</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>31.43</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>19.600000000000001</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>10.9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>10.7</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>10794</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0.6</v>
       </c>
       <c r="B14">
+        <v>0.34</v>
+      </c>
+      <c r="C14">
         <v>81.819999999999993</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>53.960999999999999</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>31.8</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>11.3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>10.9</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>10795</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0.65</v>
       </c>
       <c r="B15">
+        <v>0.34</v>
+      </c>
+      <c r="C15">
         <v>136.66900000000001</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>92.653999999999996</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>54.8</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>12.2</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>11.4</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>10795</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0.7</v>
       </c>
       <c r="B16">
+        <v>0.34</v>
+      </c>
+      <c r="C16">
         <v>219.91</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>153.66999999999999</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>94.1</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>13.6</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>12.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0.75</v>
       </c>
       <c r="B17">
+        <v>0.34</v>
+      </c>
+      <c r="C17">
         <v>338.63</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>243.2</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>136.69999999999999</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>16.100000000000001</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0.8</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18">
+        <v>0.34</v>
+      </c>
+      <c r="C18" s="1">
         <v>500.9</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>370.93</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>215.3</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>19.899999999999999</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0.85</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19">
+        <v>0.34</v>
+      </c>
+      <c r="C19" s="1">
         <v>716</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>547.70000000000005</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>324.8</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>25.5</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>20.7</v>
       </c>
     </row>

--- a/data/gain_photodetector.xlsx
+++ b/data/gain_photodetector.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yx200\Desktop\imperial\yr3\A2-Radiation_Laws\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\willp\Downloads\A2-Radiation_Laws\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4896E06-B852-4C4A-A5EE-CA0902462DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB2D0B5-A1A0-4BB6-A451-5178B7CB639A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="40dB" sheetId="1" r:id="rId1"/>
+    <sheet name="20dB" sheetId="2" r:id="rId2"/>
+    <sheet name="60dB" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>lamp current (A)</t>
   </si>
@@ -57,6 +59,21 @@
   </si>
   <si>
     <t>f6(empty)</t>
+  </si>
+  <si>
+    <t>f1 / mV</t>
+  </si>
+  <si>
+    <t>lamp current / A</t>
+  </si>
+  <si>
+    <t>f2  /mV</t>
+  </si>
+  <si>
+    <t>f3 / mV</t>
+  </si>
+  <si>
+    <t>error +/- 0.1mA</t>
   </si>
 </sst>
 </file>
@@ -189,7 +206,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$19</c:f>
+              <c:f>'40dB'!$A$9:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -231,7 +248,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$9:$C$19</c:f>
+              <c:f>'40dB'!$C$9:$C$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -518,6 +535,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'40dB'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>filter1 (mV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -542,7 +570,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$8:$A$19</c:f>
+              <c:f>'40dB'!$A$8:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -587,7 +615,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$19</c:f>
+              <c:f>'40dB'!$B$8:$B$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -633,7 +661,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1166-4C99-AE11-2DE745C97957}"/>
+              <c16:uniqueId val="{00000000-94EF-4034-9CB0-1163F9973F07}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -645,11 +673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307093760"/>
-        <c:axId val="307094240"/>
+        <c:axId val="371850719"/>
+        <c:axId val="371855999"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307093760"/>
+        <c:axId val="371850719"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,12 +734,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307094240"/>
+        <c:crossAx val="371855999"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307094240"/>
+        <c:axId val="371855999"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -768,7 +796,723 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307093760"/>
+        <c:crossAx val="371850719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'20dB'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 / mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'20dB'!$A$12:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'20dB'!$B$12:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>81.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8D07-4178-8815-9AC4A280F4AC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="540228783"/>
+        <c:axId val="540233583"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="540228783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540233583"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="540233583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="540228783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'60dB'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>f1 / mV</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'60dB'!$A$8:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'60dB'!$B$8:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>9.1999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>359.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>705.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1222.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2073.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3214</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4743</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6893</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E42-4C72-AD65-3BEB266CE820}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="282329935"/>
+        <c:axId val="282333775"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="282329935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282333775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="282333775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="282329935"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -904,6 +1648,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1421,6 +2245,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1976,23 +3832,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>364331</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>402431</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>26193</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>346075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E26CB6-794D-BA12-D39B-4BC7A250F3CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D19F5EE-0BE2-0D92-1BD4-72C97DDE4E39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2005,6 +3861,88 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73025</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>377825</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE946DDC-E2BB-54C8-6721-C54C556FD385}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794F7EDF-D965-3F2B-2366-CA5453E66887}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2279,17 +4217,17 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.46484375" customWidth="1"/>
-    <col min="2" max="2" width="9.53125" customWidth="1"/>
-    <col min="3" max="3" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="9.54296875" customWidth="1"/>
+    <col min="3" max="3" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2312,7 +4250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2332,22 +4270,22 @@
         <v>10.55</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0.1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>0.15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0.2</v>
       </c>
@@ -2355,7 +4293,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0.25</v>
       </c>
@@ -2363,7 +4301,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0.3</v>
       </c>
@@ -2374,7 +4312,7 @@
         <v>268.3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.35</v>
       </c>
@@ -2388,7 +4326,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0.4</v>
       </c>
@@ -2405,7 +4343,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>0.45</v>
       </c>
@@ -2422,7 +4360,7 @@
         <v>8480</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0.5</v>
       </c>
@@ -2439,7 +4377,7 @@
         <v>10792</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0.55000000000000004</v>
       </c>
@@ -2462,7 +4400,7 @@
         <v>10794</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0.6</v>
       </c>
@@ -2485,7 +4423,7 @@
         <v>10795</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0.65</v>
       </c>
@@ -2508,7 +4446,7 @@
         <v>10795</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0.7</v>
       </c>
@@ -2528,7 +4466,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0.75</v>
       </c>
@@ -2548,7 +4486,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0.8</v>
       </c>
@@ -2568,7 +4506,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0.85</v>
       </c>
@@ -2586,6 +4524,380 @@
       </c>
       <c r="F19">
         <v>20.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15911CBF-05FE-4458-815D-0902A7436A72}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" activeCellId="3" sqref="A1 A12:A19 B1 B12:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10.7</v>
+      </c>
+      <c r="C2">
+        <v>10.7</v>
+      </c>
+      <c r="D2">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="C10">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.45</v>
+      </c>
+      <c r="C11">
+        <v>11.1</v>
+      </c>
+      <c r="D11">
+        <v>10.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>12.3</v>
+      </c>
+      <c r="C12">
+        <v>11.6</v>
+      </c>
+      <c r="D12">
+        <v>11.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13">
+        <v>14.2</v>
+      </c>
+      <c r="C13">
+        <v>12.8</v>
+      </c>
+      <c r="D13">
+        <v>11.67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>17.7</v>
+      </c>
+      <c r="C14">
+        <v>15.1</v>
+      </c>
+      <c r="D14">
+        <v>12.82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>23.1</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>14.81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.7</v>
+      </c>
+      <c r="B16">
+        <v>31.6</v>
+      </c>
+      <c r="C16">
+        <v>25.2</v>
+      </c>
+      <c r="D16">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.75</v>
+      </c>
+      <c r="B17">
+        <v>43.3</v>
+      </c>
+      <c r="C17">
+        <v>33.9</v>
+      </c>
+      <c r="D17">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>60</v>
+      </c>
+      <c r="C18">
+        <v>46.6</v>
+      </c>
+      <c r="D18">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.85</v>
+      </c>
+      <c r="B19">
+        <v>81.3</v>
+      </c>
+      <c r="C19">
+        <v>63.8</v>
+      </c>
+      <c r="D19">
+        <v>42.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E3A2E3-DE82-4311-920C-8F3D88CE5961}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" activeCellId="3" sqref="A1 A8:A19 B1 B8:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>0.3</v>
+      </c>
+      <c r="B8">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>0.35</v>
+      </c>
+      <c r="B9">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>0.4</v>
+      </c>
+      <c r="B10">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>0.45</v>
+      </c>
+      <c r="B11">
+        <v>68.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>0.5</v>
+      </c>
+      <c r="B12">
+        <v>162.80000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B13">
+        <v>359.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <v>705.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>0.65</v>
+      </c>
+      <c r="B15">
+        <v>1222.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>0.7</v>
+      </c>
+      <c r="B16">
+        <v>2073.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>0.75</v>
+      </c>
+      <c r="B17">
+        <v>3214</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>0.8</v>
+      </c>
+      <c r="B18">
+        <v>4743</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>0.85</v>
+      </c>
+      <c r="B19">
+        <v>6893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
